--- a/medicine/Mort/Cimetière_ancien_de_Noisy-le-Sec/Cimetière_ancien_de_Noisy-le-Sec.xlsx
+++ b/medicine/Mort/Cimetière_ancien_de_Noisy-le-Sec/Cimetière_ancien_de_Noisy-le-Sec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Noisy-le-Sec</t>
+          <t>Cimetière_ancien_de_Noisy-le-Sec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière ancien de Noisy-le-Sec, situé rue Saint-Denis, est un des deux lieux de sépultures de la ville de Noisy-le-Sec en Seine-Saint-Denis[1], avec le cimetière nouveau[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière ancien de Noisy-le-Sec, situé rue Saint-Denis, est un des deux lieux de sépultures de la ville de Noisy-le-Sec en Seine-Saint-Denis, avec le cimetière nouveau.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Noisy-le-Sec</t>
+          <t>Cimetière_ancien_de_Noisy-le-Sec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière fut bombardé le 18 avril 1944, dû à sa proximité avec des installations ferroviaires[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière fut bombardé le 18 avril 1944, dû à sa proximité avec des installations ferroviaires.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Noisy-le-Sec</t>
+          <t>Cimetière_ancien_de_Noisy-le-Sec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Place Père-Daniel-Brottier[4], adossé au mur extérieur du cimetière le long de l'avenue de Verdun, se trouve un monument aux morts à la mémoire des soldats tombés pendant la première et la deuxième guerre mondiale[5], construit en 1924[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Place Père-Daniel-Brottier, adossé au mur extérieur du cimetière le long de l'avenue de Verdun, se trouve un monument aux morts à la mémoire des soldats tombés pendant la première et la deuxième guerre mondiale, construit en 1924.
 			À la mémoire de Daniel Brottier.
 			Monument aux morts.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Noisy-le-Sec</t>
+          <t>Cimetière_ancien_de_Noisy-le-Sec</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
